--- a/result_3.xlsx
+++ b/result_3.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yilindong/important/research/Honor Thesis/reading_dong/noisyLabels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yilindong/Documents/GitHub/Honor-Noisy_Label/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33385EE-8526-1A41-81E0-E371B7D8FD20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129678AA-36DE-BC41-884A-A1E6F54AD14E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3425,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A488" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G503" sqref="G503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3473,6 +3481,10 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <f>ABS(E2-F2)</f>
+        <v>0</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3496,6 +3508,10 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">ABS(E3-F3)</f>
+        <v>1</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3519,6 +3535,10 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
@@ -3542,6 +3562,10 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3565,6 +3589,10 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
@@ -3588,6 +3616,10 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3611,6 +3643,10 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
@@ -3634,6 +3670,10 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3657,6 +3697,10 @@
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3680,6 +3724,10 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>17</v>
       </c>
@@ -3703,6 +3751,10 @@
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
@@ -3726,6 +3778,10 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3749,6 +3805,10 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>20</v>
       </c>
@@ -3772,6 +3832,10 @@
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>21</v>
       </c>
@@ -3795,6 +3859,10 @@
       <c r="F16">
         <v>1</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
@@ -3818,6 +3886,10 @@
       <c r="F17">
         <v>1</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3841,6 +3913,10 @@
       <c r="F18">
         <v>1</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3864,6 +3940,10 @@
       <c r="F19">
         <v>1</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>25</v>
       </c>
@@ -3887,6 +3967,10 @@
       <c r="F20">
         <v>0</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>26</v>
       </c>
@@ -3910,6 +3994,10 @@
       <c r="F21">
         <v>1</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>27</v>
       </c>
@@ -3933,6 +4021,10 @@
       <c r="F22">
         <v>1</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="1" t="s">
         <v>28</v>
       </c>
@@ -3956,6 +4048,10 @@
       <c r="F23">
         <v>1</v>
       </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3979,6 +4075,10 @@
       <c r="F24">
         <v>1</v>
       </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>30</v>
       </c>
@@ -4002,6 +4102,10 @@
       <c r="F25">
         <v>1</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>31</v>
       </c>
@@ -4025,6 +4129,10 @@
       <c r="F26">
         <v>1</v>
       </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I26" s="1" t="s">
         <v>32</v>
       </c>
@@ -4048,6 +4156,10 @@
       <c r="F27">
         <v>1</v>
       </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>33</v>
       </c>
@@ -4071,6 +4183,10 @@
       <c r="F28">
         <v>1</v>
       </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>34</v>
       </c>
@@ -4094,6 +4210,10 @@
       <c r="F29">
         <v>1</v>
       </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>35</v>
       </c>
@@ -4117,6 +4237,10 @@
       <c r="F30">
         <v>1</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>36</v>
       </c>
@@ -4140,6 +4264,10 @@
       <c r="F31">
         <v>0</v>
       </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>37</v>
       </c>
@@ -4163,6 +4291,10 @@
       <c r="F32">
         <v>1</v>
       </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>38</v>
       </c>
@@ -4186,6 +4318,10 @@
       <c r="F33">
         <v>1</v>
       </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>39</v>
       </c>
@@ -4209,6 +4345,10 @@
       <c r="F34">
         <v>1</v>
       </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>40</v>
       </c>
@@ -4232,6 +4372,10 @@
       <c r="F35">
         <v>1</v>
       </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>41</v>
       </c>
@@ -4255,6 +4399,10 @@
       <c r="F36">
         <v>1</v>
       </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>42</v>
       </c>
@@ -4278,6 +4426,10 @@
       <c r="F37">
         <v>1</v>
       </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I37" s="1" t="s">
         <v>43</v>
       </c>
@@ -4301,6 +4453,10 @@
       <c r="F38">
         <v>1</v>
       </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>44</v>
       </c>
@@ -4324,6 +4480,10 @@
       <c r="F39">
         <v>1</v>
       </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I39" s="1" t="s">
         <v>45</v>
       </c>
@@ -4347,6 +4507,10 @@
       <c r="F40">
         <v>0</v>
       </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I40" s="1" t="s">
         <v>46</v>
       </c>
@@ -4370,6 +4534,10 @@
       <c r="F41">
         <v>1</v>
       </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I41" s="1" t="s">
         <v>47</v>
       </c>
@@ -4393,6 +4561,10 @@
       <c r="F42">
         <v>1</v>
       </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I42" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,6 +4588,10 @@
       <c r="F43">
         <v>1</v>
       </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I43" s="1" t="s">
         <v>49</v>
       </c>
@@ -4439,6 +4615,10 @@
       <c r="F44">
         <v>1</v>
       </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I44" s="1" t="s">
         <v>50</v>
       </c>
@@ -4462,6 +4642,10 @@
       <c r="F45">
         <v>1</v>
       </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I45" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,6 +4669,10 @@
       <c r="F46">
         <v>0</v>
       </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I46" s="1" t="s">
         <v>52</v>
       </c>
@@ -4508,6 +4696,10 @@
       <c r="F47">
         <v>1</v>
       </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I47" s="1" t="s">
         <v>53</v>
       </c>
@@ -4531,6 +4723,10 @@
       <c r="F48">
         <v>1</v>
       </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I48" s="1" t="s">
         <v>54</v>
       </c>
@@ -4554,6 +4750,10 @@
       <c r="F49">
         <v>1</v>
       </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I49" s="1" t="s">
         <v>55</v>
       </c>
@@ -4577,6 +4777,10 @@
       <c r="F50">
         <v>0</v>
       </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I50" s="1" t="s">
         <v>56</v>
       </c>
@@ -4600,6 +4804,10 @@
       <c r="F51">
         <v>1</v>
       </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I51" s="1" t="s">
         <v>57</v>
       </c>
@@ -4623,6 +4831,10 @@
       <c r="F52">
         <v>1</v>
       </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I52" s="1" t="s">
         <v>58</v>
       </c>
@@ -4646,6 +4858,10 @@
       <c r="F53">
         <v>1</v>
       </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I53" s="1" t="s">
         <v>59</v>
       </c>
@@ -4669,6 +4885,10 @@
       <c r="F54">
         <v>1</v>
       </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I54" s="1" t="s">
         <v>60</v>
       </c>
@@ -4692,6 +4912,10 @@
       <c r="F55">
         <v>1</v>
       </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I55" s="1" t="s">
         <v>61</v>
       </c>
@@ -4715,6 +4939,10 @@
       <c r="F56">
         <v>1</v>
       </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I56" s="1" t="s">
         <v>62</v>
       </c>
@@ -4738,6 +4966,10 @@
       <c r="F57">
         <v>0</v>
       </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I57" s="1" t="s">
         <v>63</v>
       </c>
@@ -4761,6 +4993,10 @@
       <c r="F58">
         <v>1</v>
       </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I58" s="1" t="s">
         <v>64</v>
       </c>
@@ -4784,6 +5020,10 @@
       <c r="F59">
         <v>0</v>
       </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I59" s="1" t="s">
         <v>65</v>
       </c>
@@ -4807,6 +5047,10 @@
       <c r="F60">
         <v>1</v>
       </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I60" s="1" t="s">
         <v>66</v>
       </c>
@@ -4830,6 +5074,10 @@
       <c r="F61">
         <v>1</v>
       </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I61" s="1" t="s">
         <v>67</v>
       </c>
@@ -4853,6 +5101,10 @@
       <c r="F62">
         <v>0</v>
       </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I62" s="1" t="s">
         <v>68</v>
       </c>
@@ -4876,6 +5128,10 @@
       <c r="F63">
         <v>1</v>
       </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I63" s="1" t="s">
         <v>69</v>
       </c>
@@ -4899,6 +5155,10 @@
       <c r="F64">
         <v>0</v>
       </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I64" s="1" t="s">
         <v>70</v>
       </c>
@@ -4922,6 +5182,10 @@
       <c r="F65">
         <v>1</v>
       </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I65" s="1" t="s">
         <v>71</v>
       </c>
@@ -4945,6 +5209,10 @@
       <c r="F66">
         <v>1</v>
       </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I66" s="1" t="s">
         <v>72</v>
       </c>
@@ -4968,6 +5236,10 @@
       <c r="F67">
         <v>1</v>
       </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="1">ABS(E67-F67)</f>
+        <v>0</v>
+      </c>
       <c r="I67" s="1" t="s">
         <v>73</v>
       </c>
@@ -4991,6 +5263,10 @@
       <c r="F68">
         <v>1</v>
       </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I68" s="1" t="s">
         <v>74</v>
       </c>
@@ -5014,6 +5290,10 @@
       <c r="F69">
         <v>0</v>
       </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I69" s="1" t="s">
         <v>75</v>
       </c>
@@ -5037,6 +5317,10 @@
       <c r="F70">
         <v>1</v>
       </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I70" s="1" t="s">
         <v>76</v>
       </c>
@@ -5060,6 +5344,10 @@
       <c r="F71">
         <v>1</v>
       </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I71" s="1" t="s">
         <v>77</v>
       </c>
@@ -5083,6 +5371,10 @@
       <c r="F72">
         <v>0</v>
       </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I72" s="1" t="s">
         <v>78</v>
       </c>
@@ -5106,6 +5398,10 @@
       <c r="F73">
         <v>0</v>
       </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I73" s="1" t="s">
         <v>79</v>
       </c>
@@ -5129,6 +5425,10 @@
       <c r="F74">
         <v>1</v>
       </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I74" s="1" t="s">
         <v>80</v>
       </c>
@@ -5152,6 +5452,10 @@
       <c r="F75">
         <v>1</v>
       </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I75" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,6 +5479,10 @@
       <c r="F76">
         <v>1</v>
       </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I76" s="1" t="s">
         <v>82</v>
       </c>
@@ -5198,6 +5506,10 @@
       <c r="F77">
         <v>1</v>
       </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I77" s="1" t="s">
         <v>83</v>
       </c>
@@ -5221,6 +5533,10 @@
       <c r="F78">
         <v>1</v>
       </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I78" s="1" t="s">
         <v>84</v>
       </c>
@@ -5244,6 +5560,10 @@
       <c r="F79">
         <v>1</v>
       </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I79" s="1" t="s">
         <v>85</v>
       </c>
@@ -5267,6 +5587,10 @@
       <c r="F80">
         <v>1</v>
       </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I80" s="1" t="s">
         <v>86</v>
       </c>
@@ -5290,6 +5614,10 @@
       <c r="F81">
         <v>0</v>
       </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I81" s="1" t="s">
         <v>87</v>
       </c>
@@ -5313,6 +5641,10 @@
       <c r="F82">
         <v>0</v>
       </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I82" s="1" t="s">
         <v>88</v>
       </c>
@@ -5336,6 +5668,10 @@
       <c r="F83">
         <v>1</v>
       </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I83" s="1" t="s">
         <v>89</v>
       </c>
@@ -5359,6 +5695,10 @@
       <c r="F84">
         <v>1</v>
       </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I84" s="1" t="s">
         <v>90</v>
       </c>
@@ -5382,6 +5722,10 @@
       <c r="F85">
         <v>0</v>
       </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I85" s="1" t="s">
         <v>91</v>
       </c>
@@ -5405,6 +5749,10 @@
       <c r="F86">
         <v>1</v>
       </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I86" s="1" t="s">
         <v>92</v>
       </c>
@@ -5428,6 +5776,10 @@
       <c r="F87">
         <v>1</v>
       </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I87" s="1" t="s">
         <v>93</v>
       </c>
@@ -5451,6 +5803,10 @@
       <c r="F88">
         <v>1</v>
       </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I88" s="1" t="s">
         <v>94</v>
       </c>
@@ -5474,6 +5830,10 @@
       <c r="F89">
         <v>1</v>
       </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I89" s="1" t="s">
         <v>95</v>
       </c>
@@ -5497,6 +5857,10 @@
       <c r="F90">
         <v>0</v>
       </c>
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I90" s="1" t="s">
         <v>96</v>
       </c>
@@ -5520,6 +5884,10 @@
       <c r="F91">
         <v>1</v>
       </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I91" s="1" t="s">
         <v>97</v>
       </c>
@@ -5543,6 +5911,10 @@
       <c r="F92">
         <v>0</v>
       </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I92" s="1" t="s">
         <v>98</v>
       </c>
@@ -5566,6 +5938,10 @@
       <c r="F93">
         <v>1</v>
       </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I93" s="1" t="s">
         <v>99</v>
       </c>
@@ -5589,6 +5965,10 @@
       <c r="F94">
         <v>1</v>
       </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I94" s="1" t="s">
         <v>100</v>
       </c>
@@ -5612,6 +5992,10 @@
       <c r="F95">
         <v>1</v>
       </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I95" s="1" t="s">
         <v>101</v>
       </c>
@@ -5635,6 +6019,10 @@
       <c r="F96">
         <v>1</v>
       </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I96" s="1" t="s">
         <v>102</v>
       </c>
@@ -5658,6 +6046,10 @@
       <c r="F97">
         <v>1</v>
       </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I97" s="1" t="s">
         <v>103</v>
       </c>
@@ -5681,6 +6073,10 @@
       <c r="F98">
         <v>1</v>
       </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I98" s="1" t="s">
         <v>104</v>
       </c>
@@ -5704,6 +6100,10 @@
       <c r="F99">
         <v>0</v>
       </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I99" s="1" t="s">
         <v>105</v>
       </c>
@@ -5727,6 +6127,10 @@
       <c r="F100">
         <v>1</v>
       </c>
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I100" s="1" t="s">
         <v>106</v>
       </c>
@@ -5750,6 +6154,10 @@
       <c r="F101">
         <v>1</v>
       </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I101" s="1" t="s">
         <v>107</v>
       </c>
@@ -5773,6 +6181,10 @@
       <c r="F102">
         <v>1</v>
       </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I102" s="1" t="s">
         <v>108</v>
       </c>
@@ -5796,6 +6208,10 @@
       <c r="F103">
         <v>1</v>
       </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I103" s="1" t="s">
         <v>109</v>
       </c>
@@ -5819,6 +6235,10 @@
       <c r="F104">
         <v>1</v>
       </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I104" s="1" t="s">
         <v>110</v>
       </c>
@@ -5842,6 +6262,10 @@
       <c r="F105">
         <v>1</v>
       </c>
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I105" s="1" t="s">
         <v>111</v>
       </c>
@@ -5865,6 +6289,10 @@
       <c r="F106">
         <v>1</v>
       </c>
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I106" s="1" t="s">
         <v>112</v>
       </c>
@@ -5888,6 +6316,10 @@
       <c r="F107">
         <v>1</v>
       </c>
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I107" s="1" t="s">
         <v>113</v>
       </c>
@@ -5911,6 +6343,10 @@
       <c r="F108">
         <v>1</v>
       </c>
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I108" s="1" t="s">
         <v>114</v>
       </c>
@@ -5934,6 +6370,10 @@
       <c r="F109">
         <v>1</v>
       </c>
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I109" s="1" t="s">
         <v>115</v>
       </c>
@@ -5957,6 +6397,10 @@
       <c r="F110">
         <v>0</v>
       </c>
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I110" s="1" t="s">
         <v>116</v>
       </c>
@@ -5980,6 +6424,10 @@
       <c r="F111">
         <v>1</v>
       </c>
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I111" s="1" t="s">
         <v>117</v>
       </c>
@@ -6003,6 +6451,10 @@
       <c r="F112">
         <v>1</v>
       </c>
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I112" s="1" t="s">
         <v>118</v>
       </c>
@@ -6026,6 +6478,10 @@
       <c r="F113">
         <v>1</v>
       </c>
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I113" s="1" t="s">
         <v>119</v>
       </c>
@@ -6049,6 +6505,10 @@
       <c r="F114">
         <v>1</v>
       </c>
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I114" s="1" t="s">
         <v>120</v>
       </c>
@@ -6072,6 +6532,10 @@
       <c r="F115">
         <v>1</v>
       </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I115" s="1" t="s">
         <v>121</v>
       </c>
@@ -6095,6 +6559,10 @@
       <c r="F116">
         <v>1</v>
       </c>
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I116" s="1" t="s">
         <v>122</v>
       </c>
@@ -6118,6 +6586,10 @@
       <c r="F117">
         <v>1</v>
       </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I117" s="1" t="s">
         <v>123</v>
       </c>
@@ -6141,6 +6613,10 @@
       <c r="F118">
         <v>1</v>
       </c>
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I118" s="1" t="s">
         <v>124</v>
       </c>
@@ -6164,6 +6640,10 @@
       <c r="F119">
         <v>1</v>
       </c>
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I119" s="1" t="s">
         <v>125</v>
       </c>
@@ -6187,6 +6667,10 @@
       <c r="F120">
         <v>1</v>
       </c>
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I120" s="1" t="s">
         <v>126</v>
       </c>
@@ -6210,6 +6694,10 @@
       <c r="F121">
         <v>1</v>
       </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I121" s="1" t="s">
         <v>127</v>
       </c>
@@ -6233,6 +6721,10 @@
       <c r="F122">
         <v>1</v>
       </c>
+      <c r="G122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I122" s="1" t="s">
         <v>128</v>
       </c>
@@ -6256,6 +6748,10 @@
       <c r="F123">
         <v>1</v>
       </c>
+      <c r="G123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I123" s="1" t="s">
         <v>129</v>
       </c>
@@ -6279,6 +6775,10 @@
       <c r="F124">
         <v>1</v>
       </c>
+      <c r="G124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I124" s="1" t="s">
         <v>130</v>
       </c>
@@ -6302,6 +6802,10 @@
       <c r="F125">
         <v>0</v>
       </c>
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I125" s="1" t="s">
         <v>131</v>
       </c>
@@ -6325,6 +6829,10 @@
       <c r="F126">
         <v>0</v>
       </c>
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I126" s="1" t="s">
         <v>132</v>
       </c>
@@ -6348,6 +6856,10 @@
       <c r="F127">
         <v>0</v>
       </c>
+      <c r="G127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I127" s="1" t="s">
         <v>133</v>
       </c>
@@ -6371,6 +6883,10 @@
       <c r="F128">
         <v>1</v>
       </c>
+      <c r="G128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I128" s="1" t="s">
         <v>134</v>
       </c>
@@ -6394,6 +6910,10 @@
       <c r="F129">
         <v>1</v>
       </c>
+      <c r="G129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I129" s="1" t="s">
         <v>135</v>
       </c>
@@ -6417,6 +6937,10 @@
       <c r="F130">
         <v>0</v>
       </c>
+      <c r="G130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I130" s="1" t="s">
         <v>136</v>
       </c>
@@ -6440,6 +6964,10 @@
       <c r="F131">
         <v>1</v>
       </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="2">ABS(E131-F131)</f>
+        <v>0</v>
+      </c>
       <c r="I131" s="1" t="s">
         <v>137</v>
       </c>
@@ -6463,6 +6991,10 @@
       <c r="F132">
         <v>1</v>
       </c>
+      <c r="G132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I132" s="1" t="s">
         <v>138</v>
       </c>
@@ -6486,6 +7018,10 @@
       <c r="F133">
         <v>1</v>
       </c>
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I133" s="1" t="s">
         <v>139</v>
       </c>
@@ -6509,6 +7045,10 @@
       <c r="F134">
         <v>1</v>
       </c>
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I134" s="1" t="s">
         <v>140</v>
       </c>
@@ -6532,6 +7072,10 @@
       <c r="F135">
         <v>1</v>
       </c>
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I135" s="1" t="s">
         <v>141</v>
       </c>
@@ -6555,6 +7099,10 @@
       <c r="F136">
         <v>1</v>
       </c>
+      <c r="G136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I136" s="1" t="s">
         <v>142</v>
       </c>
@@ -6578,6 +7126,10 @@
       <c r="F137">
         <v>0</v>
       </c>
+      <c r="G137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I137" s="1" t="s">
         <v>143</v>
       </c>
@@ -6601,6 +7153,10 @@
       <c r="F138">
         <v>1</v>
       </c>
+      <c r="G138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I138" s="1" t="s">
         <v>144</v>
       </c>
@@ -6624,6 +7180,10 @@
       <c r="F139">
         <v>1</v>
       </c>
+      <c r="G139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I139" s="1" t="s">
         <v>145</v>
       </c>
@@ -6647,6 +7207,10 @@
       <c r="F140">
         <v>1</v>
       </c>
+      <c r="G140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I140" s="1" t="s">
         <v>146</v>
       </c>
@@ -6670,6 +7234,10 @@
       <c r="F141">
         <v>1</v>
       </c>
+      <c r="G141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I141" s="1" t="s">
         <v>147</v>
       </c>
@@ -6693,6 +7261,10 @@
       <c r="F142">
         <v>1</v>
       </c>
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I142" s="1" t="s">
         <v>148</v>
       </c>
@@ -6716,6 +7288,10 @@
       <c r="F143">
         <v>1</v>
       </c>
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I143" s="1" t="s">
         <v>149</v>
       </c>
@@ -6739,6 +7315,10 @@
       <c r="F144">
         <v>1</v>
       </c>
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I144" s="1" t="s">
         <v>150</v>
       </c>
@@ -6762,6 +7342,10 @@
       <c r="F145">
         <v>1</v>
       </c>
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I145" s="1" t="s">
         <v>151</v>
       </c>
@@ -6785,6 +7369,10 @@
       <c r="F146">
         <v>1</v>
       </c>
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I146" s="1" t="s">
         <v>152</v>
       </c>
@@ -6808,6 +7396,10 @@
       <c r="F147">
         <v>1</v>
       </c>
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I147" s="1" t="s">
         <v>153</v>
       </c>
@@ -6831,6 +7423,10 @@
       <c r="F148">
         <v>1</v>
       </c>
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I148" s="1" t="s">
         <v>154</v>
       </c>
@@ -6854,6 +7450,10 @@
       <c r="F149">
         <v>1</v>
       </c>
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I149" s="1" t="s">
         <v>155</v>
       </c>
@@ -6877,6 +7477,10 @@
       <c r="F150">
         <v>0</v>
       </c>
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I150" s="1" t="s">
         <v>156</v>
       </c>
@@ -6900,6 +7504,10 @@
       <c r="F151">
         <v>1</v>
       </c>
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I151" s="1" t="s">
         <v>157</v>
       </c>
@@ -6923,6 +7531,10 @@
       <c r="F152">
         <v>1</v>
       </c>
+      <c r="G152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I152" s="1" t="s">
         <v>158</v>
       </c>
@@ -6946,6 +7558,10 @@
       <c r="F153">
         <v>1</v>
       </c>
+      <c r="G153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I153" s="1" t="s">
         <v>159</v>
       </c>
@@ -6969,6 +7585,10 @@
       <c r="F154">
         <v>1</v>
       </c>
+      <c r="G154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I154" s="1" t="s">
         <v>160</v>
       </c>
@@ -6992,6 +7612,10 @@
       <c r="F155">
         <v>1</v>
       </c>
+      <c r="G155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I155" s="1" t="s">
         <v>161</v>
       </c>
@@ -7015,6 +7639,10 @@
       <c r="F156">
         <v>0</v>
       </c>
+      <c r="G156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I156" s="1" t="s">
         <v>162</v>
       </c>
@@ -7038,6 +7666,10 @@
       <c r="F157">
         <v>1</v>
       </c>
+      <c r="G157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I157" s="1" t="s">
         <v>163</v>
       </c>
@@ -7061,6 +7693,10 @@
       <c r="F158">
         <v>1</v>
       </c>
+      <c r="G158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I158" s="1" t="s">
         <v>164</v>
       </c>
@@ -7084,6 +7720,10 @@
       <c r="F159">
         <v>0</v>
       </c>
+      <c r="G159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I159" s="1" t="s">
         <v>165</v>
       </c>
@@ -7107,6 +7747,10 @@
       <c r="F160">
         <v>1</v>
       </c>
+      <c r="G160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I160" s="1" t="s">
         <v>166</v>
       </c>
@@ -7130,6 +7774,10 @@
       <c r="F161">
         <v>0</v>
       </c>
+      <c r="G161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I161" s="1" t="s">
         <v>167</v>
       </c>
@@ -7153,6 +7801,10 @@
       <c r="F162">
         <v>1</v>
       </c>
+      <c r="G162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I162" s="1" t="s">
         <v>168</v>
       </c>
@@ -7176,6 +7828,10 @@
       <c r="F163">
         <v>1</v>
       </c>
+      <c r="G163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I163" s="1" t="s">
         <v>169</v>
       </c>
@@ -7199,6 +7855,10 @@
       <c r="F164">
         <v>1</v>
       </c>
+      <c r="G164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I164" s="1" t="s">
         <v>170</v>
       </c>
@@ -7222,6 +7882,10 @@
       <c r="F165">
         <v>1</v>
       </c>
+      <c r="G165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I165" s="1" t="s">
         <v>171</v>
       </c>
@@ -7245,6 +7909,10 @@
       <c r="F166">
         <v>1</v>
       </c>
+      <c r="G166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I166" s="1" t="s">
         <v>172</v>
       </c>
@@ -7268,6 +7936,10 @@
       <c r="F167">
         <v>1</v>
       </c>
+      <c r="G167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I167" s="1" t="s">
         <v>173</v>
       </c>
@@ -7291,6 +7963,10 @@
       <c r="F168">
         <v>1</v>
       </c>
+      <c r="G168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I168" s="1" t="s">
         <v>174</v>
       </c>
@@ -7314,6 +7990,10 @@
       <c r="F169">
         <v>1</v>
       </c>
+      <c r="G169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I169" s="1" t="s">
         <v>175</v>
       </c>
@@ -7337,6 +8017,10 @@
       <c r="F170">
         <v>1</v>
       </c>
+      <c r="G170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I170" s="1" t="s">
         <v>176</v>
       </c>
@@ -7360,6 +8044,10 @@
       <c r="F171">
         <v>1</v>
       </c>
+      <c r="G171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I171" s="1" t="s">
         <v>177</v>
       </c>
@@ -7383,6 +8071,10 @@
       <c r="F172">
         <v>0</v>
       </c>
+      <c r="G172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I172" s="1" t="s">
         <v>178</v>
       </c>
@@ -7406,6 +8098,10 @@
       <c r="F173">
         <v>1</v>
       </c>
+      <c r="G173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I173" s="1" t="s">
         <v>179</v>
       </c>
@@ -7429,6 +8125,10 @@
       <c r="F174">
         <v>1</v>
       </c>
+      <c r="G174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I174" s="1" t="s">
         <v>180</v>
       </c>
@@ -7452,6 +8152,10 @@
       <c r="F175">
         <v>1</v>
       </c>
+      <c r="G175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I175" s="1" t="s">
         <v>181</v>
       </c>
@@ -7475,6 +8179,10 @@
       <c r="F176">
         <v>1</v>
       </c>
+      <c r="G176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I176" s="1" t="s">
         <v>182</v>
       </c>
@@ -7498,6 +8206,10 @@
       <c r="F177">
         <v>1</v>
       </c>
+      <c r="G177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I177" s="1" t="s">
         <v>183</v>
       </c>
@@ -7521,6 +8233,10 @@
       <c r="F178">
         <v>1</v>
       </c>
+      <c r="G178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I178" s="1" t="s">
         <v>184</v>
       </c>
@@ -7544,6 +8260,10 @@
       <c r="F179">
         <v>1</v>
       </c>
+      <c r="G179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I179" s="1" t="s">
         <v>185</v>
       </c>
@@ -7567,6 +8287,10 @@
       <c r="F180">
         <v>1</v>
       </c>
+      <c r="G180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I180" s="1" t="s">
         <v>186</v>
       </c>
@@ -7590,6 +8314,10 @@
       <c r="F181">
         <v>0</v>
       </c>
+      <c r="G181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I181" s="1" t="s">
         <v>187</v>
       </c>
@@ -7613,6 +8341,10 @@
       <c r="F182">
         <v>0</v>
       </c>
+      <c r="G182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I182" s="1" t="s">
         <v>188</v>
       </c>
@@ -7636,6 +8368,10 @@
       <c r="F183">
         <v>1</v>
       </c>
+      <c r="G183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I183" s="1" t="s">
         <v>189</v>
       </c>
@@ -7659,6 +8395,10 @@
       <c r="F184">
         <v>1</v>
       </c>
+      <c r="G184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I184" s="1" t="s">
         <v>190</v>
       </c>
@@ -7682,6 +8422,10 @@
       <c r="F185">
         <v>1</v>
       </c>
+      <c r="G185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I185" s="1" t="s">
         <v>191</v>
       </c>
@@ -7705,6 +8449,10 @@
       <c r="F186">
         <v>0</v>
       </c>
+      <c r="G186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I186" s="1" t="s">
         <v>192</v>
       </c>
@@ -7728,6 +8476,10 @@
       <c r="F187">
         <v>0</v>
       </c>
+      <c r="G187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I187" s="1" t="s">
         <v>193</v>
       </c>
@@ -7751,6 +8503,10 @@
       <c r="F188">
         <v>1</v>
       </c>
+      <c r="G188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I188" s="1" t="s">
         <v>194</v>
       </c>
@@ -7774,6 +8530,10 @@
       <c r="F189">
         <v>1</v>
       </c>
+      <c r="G189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I189" s="1" t="s">
         <v>195</v>
       </c>
@@ -7797,6 +8557,10 @@
       <c r="F190">
         <v>1</v>
       </c>
+      <c r="G190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I190" s="1" t="s">
         <v>196</v>
       </c>
@@ -7820,6 +8584,10 @@
       <c r="F191">
         <v>0</v>
       </c>
+      <c r="G191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I191" s="1" t="s">
         <v>197</v>
       </c>
@@ -7843,6 +8611,10 @@
       <c r="F192">
         <v>1</v>
       </c>
+      <c r="G192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I192" s="1" t="s">
         <v>198</v>
       </c>
@@ -7866,6 +8638,10 @@
       <c r="F193">
         <v>1</v>
       </c>
+      <c r="G193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I193" s="1" t="s">
         <v>199</v>
       </c>
@@ -7889,6 +8665,10 @@
       <c r="F194">
         <v>1</v>
       </c>
+      <c r="G194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I194" s="1" t="s">
         <v>200</v>
       </c>
@@ -7912,6 +8692,10 @@
       <c r="F195">
         <v>1</v>
       </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G258" si="3">ABS(E195-F195)</f>
+        <v>0</v>
+      </c>
       <c r="I195" s="1" t="s">
         <v>201</v>
       </c>
@@ -7935,6 +8719,10 @@
       <c r="F196">
         <v>1</v>
       </c>
+      <c r="G196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I196" s="1" t="s">
         <v>202</v>
       </c>
@@ -7958,6 +8746,10 @@
       <c r="F197">
         <v>1</v>
       </c>
+      <c r="G197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I197" s="1" t="s">
         <v>203</v>
       </c>
@@ -7981,6 +8773,10 @@
       <c r="F198">
         <v>1</v>
       </c>
+      <c r="G198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I198" s="1" t="s">
         <v>204</v>
       </c>
@@ -8004,6 +8800,10 @@
       <c r="F199">
         <v>1</v>
       </c>
+      <c r="G199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I199" s="1" t="s">
         <v>205</v>
       </c>
@@ -8027,6 +8827,10 @@
       <c r="F200">
         <v>1</v>
       </c>
+      <c r="G200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I200" s="1" t="s">
         <v>206</v>
       </c>
@@ -8050,6 +8854,10 @@
       <c r="F201">
         <v>1</v>
       </c>
+      <c r="G201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I201" s="1" t="s">
         <v>207</v>
       </c>
@@ -8073,6 +8881,10 @@
       <c r="F202">
         <v>1</v>
       </c>
+      <c r="G202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I202" s="1" t="s">
         <v>208</v>
       </c>
@@ -8096,6 +8908,10 @@
       <c r="F203">
         <v>1</v>
       </c>
+      <c r="G203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I203" s="1" t="s">
         <v>209</v>
       </c>
@@ -8119,6 +8935,10 @@
       <c r="F204">
         <v>1</v>
       </c>
+      <c r="G204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I204" s="1" t="s">
         <v>210</v>
       </c>
@@ -8142,6 +8962,10 @@
       <c r="F205">
         <v>0</v>
       </c>
+      <c r="G205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I205" s="1" t="s">
         <v>211</v>
       </c>
@@ -8165,6 +8989,10 @@
       <c r="F206">
         <v>1</v>
       </c>
+      <c r="G206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I206" s="1" t="s">
         <v>212</v>
       </c>
@@ -8188,6 +9016,10 @@
       <c r="F207">
         <v>1</v>
       </c>
+      <c r="G207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I207" s="1" t="s">
         <v>213</v>
       </c>
@@ -8211,6 +9043,10 @@
       <c r="F208">
         <v>1</v>
       </c>
+      <c r="G208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I208" s="1" t="s">
         <v>214</v>
       </c>
@@ -8234,6 +9070,10 @@
       <c r="F209">
         <v>1</v>
       </c>
+      <c r="G209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I209" s="1" t="s">
         <v>215</v>
       </c>
@@ -8257,6 +9097,10 @@
       <c r="F210">
         <v>1</v>
       </c>
+      <c r="G210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I210" s="1" t="s">
         <v>216</v>
       </c>
@@ -8280,6 +9124,10 @@
       <c r="F211">
         <v>1</v>
       </c>
+      <c r="G211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I211" s="1" t="s">
         <v>217</v>
       </c>
@@ -8303,6 +9151,10 @@
       <c r="F212">
         <v>0</v>
       </c>
+      <c r="G212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I212" s="1" t="s">
         <v>218</v>
       </c>
@@ -8326,6 +9178,10 @@
       <c r="F213">
         <v>1</v>
       </c>
+      <c r="G213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I213" s="1" t="s">
         <v>219</v>
       </c>
@@ -8349,6 +9205,10 @@
       <c r="F214">
         <v>1</v>
       </c>
+      <c r="G214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I214" s="1" t="s">
         <v>220</v>
       </c>
@@ -8372,6 +9232,10 @@
       <c r="F215">
         <v>1</v>
       </c>
+      <c r="G215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I215" s="1" t="s">
         <v>221</v>
       </c>
@@ -8395,6 +9259,10 @@
       <c r="F216">
         <v>0</v>
       </c>
+      <c r="G216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I216" s="1" t="s">
         <v>222</v>
       </c>
@@ -8418,6 +9286,10 @@
       <c r="F217">
         <v>1</v>
       </c>
+      <c r="G217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I217" s="1" t="s">
         <v>223</v>
       </c>
@@ -8441,6 +9313,10 @@
       <c r="F218">
         <v>0</v>
       </c>
+      <c r="G218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I218" s="1" t="s">
         <v>224</v>
       </c>
@@ -8464,6 +9340,10 @@
       <c r="F219">
         <v>1</v>
       </c>
+      <c r="G219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I219" s="1" t="s">
         <v>225</v>
       </c>
@@ -8487,6 +9367,10 @@
       <c r="F220">
         <v>0</v>
       </c>
+      <c r="G220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I220" s="1" t="s">
         <v>226</v>
       </c>
@@ -8510,6 +9394,10 @@
       <c r="F221">
         <v>1</v>
       </c>
+      <c r="G221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I221" s="1" t="s">
         <v>227</v>
       </c>
@@ -8533,6 +9421,10 @@
       <c r="F222">
         <v>0</v>
       </c>
+      <c r="G222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I222" s="1" t="s">
         <v>228</v>
       </c>
@@ -8556,6 +9448,10 @@
       <c r="F223">
         <v>0</v>
       </c>
+      <c r="G223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I223" s="1" t="s">
         <v>229</v>
       </c>
@@ -8579,6 +9475,10 @@
       <c r="F224">
         <v>1</v>
       </c>
+      <c r="G224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I224" s="1" t="s">
         <v>230</v>
       </c>
@@ -8602,6 +9502,10 @@
       <c r="F225">
         <v>1</v>
       </c>
+      <c r="G225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I225" s="1" t="s">
         <v>231</v>
       </c>
@@ -8625,6 +9529,10 @@
       <c r="F226">
         <v>1</v>
       </c>
+      <c r="G226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I226" s="1" t="s">
         <v>232</v>
       </c>
@@ -8648,6 +9556,10 @@
       <c r="F227">
         <v>1</v>
       </c>
+      <c r="G227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I227" s="1" t="s">
         <v>233</v>
       </c>
@@ -8671,6 +9583,10 @@
       <c r="F228">
         <v>1</v>
       </c>
+      <c r="G228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I228" s="1" t="s">
         <v>234</v>
       </c>
@@ -8694,6 +9610,10 @@
       <c r="F229">
         <v>1</v>
       </c>
+      <c r="G229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I229" s="1" t="s">
         <v>235</v>
       </c>
@@ -8717,6 +9637,10 @@
       <c r="F230">
         <v>1</v>
       </c>
+      <c r="G230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I230" s="1" t="s">
         <v>236</v>
       </c>
@@ -8740,6 +9664,10 @@
       <c r="F231">
         <v>1</v>
       </c>
+      <c r="G231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I231" s="1" t="s">
         <v>237</v>
       </c>
@@ -8763,6 +9691,10 @@
       <c r="F232">
         <v>1</v>
       </c>
+      <c r="G232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I232" s="1" t="s">
         <v>238</v>
       </c>
@@ -8786,6 +9718,10 @@
       <c r="F233">
         <v>1</v>
       </c>
+      <c r="G233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I233" s="1" t="s">
         <v>239</v>
       </c>
@@ -8809,6 +9745,10 @@
       <c r="F234">
         <v>1</v>
       </c>
+      <c r="G234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I234" s="1" t="s">
         <v>240</v>
       </c>
@@ -8832,6 +9772,10 @@
       <c r="F235">
         <v>1</v>
       </c>
+      <c r="G235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I235" s="1" t="s">
         <v>241</v>
       </c>
@@ -8855,6 +9799,10 @@
       <c r="F236">
         <v>1</v>
       </c>
+      <c r="G236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I236" s="1" t="s">
         <v>242</v>
       </c>
@@ -8878,6 +9826,10 @@
       <c r="F237">
         <v>1</v>
       </c>
+      <c r="G237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I237" s="1" t="s">
         <v>243</v>
       </c>
@@ -8901,6 +9853,10 @@
       <c r="F238">
         <v>0</v>
       </c>
+      <c r="G238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I238" s="1" t="s">
         <v>244</v>
       </c>
@@ -8924,6 +9880,10 @@
       <c r="F239">
         <v>1</v>
       </c>
+      <c r="G239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I239" s="1" t="s">
         <v>245</v>
       </c>
@@ -8947,6 +9907,10 @@
       <c r="F240">
         <v>1</v>
       </c>
+      <c r="G240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I240" s="1" t="s">
         <v>246</v>
       </c>
@@ -8970,6 +9934,10 @@
       <c r="F241">
         <v>1</v>
       </c>
+      <c r="G241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I241" s="1" t="s">
         <v>247</v>
       </c>
@@ -8993,6 +9961,10 @@
       <c r="F242">
         <v>1</v>
       </c>
+      <c r="G242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I242" s="1" t="s">
         <v>248</v>
       </c>
@@ -9016,6 +9988,10 @@
       <c r="F243">
         <v>1</v>
       </c>
+      <c r="G243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I243" s="1" t="s">
         <v>249</v>
       </c>
@@ -9039,6 +10015,10 @@
       <c r="F244">
         <v>0</v>
       </c>
+      <c r="G244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I244" s="1" t="s">
         <v>250</v>
       </c>
@@ -9062,6 +10042,10 @@
       <c r="F245">
         <v>0</v>
       </c>
+      <c r="G245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I245" s="1" t="s">
         <v>251</v>
       </c>
@@ -9085,6 +10069,10 @@
       <c r="F246">
         <v>1</v>
       </c>
+      <c r="G246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I246" s="1" t="s">
         <v>252</v>
       </c>
@@ -9108,6 +10096,10 @@
       <c r="F247">
         <v>1</v>
       </c>
+      <c r="G247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I247" s="1" t="s">
         <v>253</v>
       </c>
@@ -9131,6 +10123,10 @@
       <c r="F248">
         <v>1</v>
       </c>
+      <c r="G248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I248" s="1" t="s">
         <v>254</v>
       </c>
@@ -9154,6 +10150,10 @@
       <c r="F249">
         <v>1</v>
       </c>
+      <c r="G249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I249" s="1" t="s">
         <v>255</v>
       </c>
@@ -9177,6 +10177,10 @@
       <c r="F250">
         <v>1</v>
       </c>
+      <c r="G250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I250" s="1" t="s">
         <v>256</v>
       </c>
@@ -9200,6 +10204,10 @@
       <c r="F251">
         <v>1</v>
       </c>
+      <c r="G251">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I251" s="1" t="s">
         <v>257</v>
       </c>
@@ -9223,6 +10231,10 @@
       <c r="F252">
         <v>0</v>
       </c>
+      <c r="G252">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I252" s="1" t="s">
         <v>258</v>
       </c>
@@ -9246,6 +10258,10 @@
       <c r="F253">
         <v>1</v>
       </c>
+      <c r="G253">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I253" s="1" t="s">
         <v>259</v>
       </c>
@@ -9269,6 +10285,10 @@
       <c r="F254">
         <v>0</v>
       </c>
+      <c r="G254">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I254" s="1" t="s">
         <v>260</v>
       </c>
@@ -9292,6 +10312,10 @@
       <c r="F255">
         <v>1</v>
       </c>
+      <c r="G255">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I255" s="1" t="s">
         <v>261</v>
       </c>
@@ -9315,6 +10339,10 @@
       <c r="F256">
         <v>1</v>
       </c>
+      <c r="G256">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I256" s="1" t="s">
         <v>262</v>
       </c>
@@ -9338,6 +10366,10 @@
       <c r="F257">
         <v>1</v>
       </c>
+      <c r="G257">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I257" s="1" t="s">
         <v>263</v>
       </c>
@@ -9361,6 +10393,10 @@
       <c r="F258">
         <v>0</v>
       </c>
+      <c r="G258">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I258" s="1" t="s">
         <v>264</v>
       </c>
@@ -9384,6 +10420,10 @@
       <c r="F259">
         <v>1</v>
       </c>
+      <c r="G259">
+        <f t="shared" ref="G259:G322" si="4">ABS(E259-F259)</f>
+        <v>0</v>
+      </c>
       <c r="I259" s="1" t="s">
         <v>265</v>
       </c>
@@ -9407,6 +10447,10 @@
       <c r="F260">
         <v>1</v>
       </c>
+      <c r="G260">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I260" s="1" t="s">
         <v>266</v>
       </c>
@@ -9430,6 +10474,10 @@
       <c r="F261">
         <v>1</v>
       </c>
+      <c r="G261">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I261" s="1" t="s">
         <v>267</v>
       </c>
@@ -9453,6 +10501,10 @@
       <c r="F262">
         <v>0</v>
       </c>
+      <c r="G262">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I262" s="1" t="s">
         <v>268</v>
       </c>
@@ -9476,6 +10528,10 @@
       <c r="F263">
         <v>1</v>
       </c>
+      <c r="G263">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I263" s="1" t="s">
         <v>269</v>
       </c>
@@ -9499,6 +10555,10 @@
       <c r="F264">
         <v>1</v>
       </c>
+      <c r="G264">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I264" s="1" t="s">
         <v>270</v>
       </c>
@@ -9522,6 +10582,10 @@
       <c r="F265">
         <v>0</v>
       </c>
+      <c r="G265">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I265" s="1" t="s">
         <v>271</v>
       </c>
@@ -9545,6 +10609,10 @@
       <c r="F266">
         <v>1</v>
       </c>
+      <c r="G266">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I266" s="1" t="s">
         <v>272</v>
       </c>
@@ -9568,6 +10636,10 @@
       <c r="F267">
         <v>0</v>
       </c>
+      <c r="G267">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I267" s="1" t="s">
         <v>273</v>
       </c>
@@ -9591,6 +10663,10 @@
       <c r="F268">
         <v>1</v>
       </c>
+      <c r="G268">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I268" s="1" t="s">
         <v>274</v>
       </c>
@@ -9614,6 +10690,10 @@
       <c r="F269">
         <v>1</v>
       </c>
+      <c r="G269">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I269" s="1" t="s">
         <v>275</v>
       </c>
@@ -9637,6 +10717,10 @@
       <c r="F270">
         <v>1</v>
       </c>
+      <c r="G270">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I270" s="1" t="s">
         <v>276</v>
       </c>
@@ -9660,6 +10744,10 @@
       <c r="F271">
         <v>1</v>
       </c>
+      <c r="G271">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I271" s="1" t="s">
         <v>277</v>
       </c>
@@ -9683,6 +10771,10 @@
       <c r="F272">
         <v>1</v>
       </c>
+      <c r="G272">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I272" s="1" t="s">
         <v>278</v>
       </c>
@@ -9706,6 +10798,10 @@
       <c r="F273">
         <v>1</v>
       </c>
+      <c r="G273">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I273" s="1" t="s">
         <v>279</v>
       </c>
@@ -9729,6 +10825,10 @@
       <c r="F274">
         <v>1</v>
       </c>
+      <c r="G274">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I274" s="1" t="s">
         <v>280</v>
       </c>
@@ -9752,6 +10852,10 @@
       <c r="F275">
         <v>1</v>
       </c>
+      <c r="G275">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I275" s="1" t="s">
         <v>281</v>
       </c>
@@ -9775,6 +10879,10 @@
       <c r="F276">
         <v>0</v>
       </c>
+      <c r="G276">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I276" s="1" t="s">
         <v>282</v>
       </c>
@@ -9798,6 +10906,10 @@
       <c r="F277">
         <v>1</v>
       </c>
+      <c r="G277">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I277" s="1" t="s">
         <v>283</v>
       </c>
@@ -9821,6 +10933,10 @@
       <c r="F278">
         <v>1</v>
       </c>
+      <c r="G278">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I278" s="1" t="s">
         <v>284</v>
       </c>
@@ -9844,6 +10960,10 @@
       <c r="F279">
         <v>1</v>
       </c>
+      <c r="G279">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I279" s="1" t="s">
         <v>285</v>
       </c>
@@ -9867,6 +10987,10 @@
       <c r="F280">
         <v>0</v>
       </c>
+      <c r="G280">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I280" s="1" t="s">
         <v>286</v>
       </c>
@@ -9890,6 +11014,10 @@
       <c r="F281">
         <v>1</v>
       </c>
+      <c r="G281">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I281" s="1" t="s">
         <v>287</v>
       </c>
@@ -9913,6 +11041,10 @@
       <c r="F282">
         <v>0</v>
       </c>
+      <c r="G282">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I282" s="1" t="s">
         <v>288</v>
       </c>
@@ -9936,6 +11068,10 @@
       <c r="F283">
         <v>1</v>
       </c>
+      <c r="G283">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I283" s="1" t="s">
         <v>289</v>
       </c>
@@ -9959,6 +11095,10 @@
       <c r="F284">
         <v>1</v>
       </c>
+      <c r="G284">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I284" s="1" t="s">
         <v>290</v>
       </c>
@@ -9982,6 +11122,10 @@
       <c r="F285">
         <v>1</v>
       </c>
+      <c r="G285">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I285" s="1" t="s">
         <v>291</v>
       </c>
@@ -10005,6 +11149,10 @@
       <c r="F286">
         <v>1</v>
       </c>
+      <c r="G286">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I286" s="1" t="s">
         <v>292</v>
       </c>
@@ -10028,6 +11176,10 @@
       <c r="F287">
         <v>1</v>
       </c>
+      <c r="G287">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I287" s="1" t="s">
         <v>293</v>
       </c>
@@ -10051,6 +11203,10 @@
       <c r="F288">
         <v>1</v>
       </c>
+      <c r="G288">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I288" s="1" t="s">
         <v>294</v>
       </c>
@@ -10074,6 +11230,10 @@
       <c r="F289">
         <v>1</v>
       </c>
+      <c r="G289">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I289" s="1" t="s">
         <v>295</v>
       </c>
@@ -10097,6 +11257,10 @@
       <c r="F290">
         <v>1</v>
       </c>
+      <c r="G290">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I290" s="1" t="s">
         <v>296</v>
       </c>
@@ -10120,6 +11284,10 @@
       <c r="F291">
         <v>0</v>
       </c>
+      <c r="G291">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I291" s="1" t="s">
         <v>297</v>
       </c>
@@ -10143,6 +11311,10 @@
       <c r="F292">
         <v>1</v>
       </c>
+      <c r="G292">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I292" s="1" t="s">
         <v>298</v>
       </c>
@@ -10166,6 +11338,10 @@
       <c r="F293">
         <v>1</v>
       </c>
+      <c r="G293">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I293" s="1" t="s">
         <v>299</v>
       </c>
@@ -10189,6 +11365,10 @@
       <c r="F294">
         <v>1</v>
       </c>
+      <c r="G294">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I294" s="1" t="s">
         <v>300</v>
       </c>
@@ -10212,6 +11392,10 @@
       <c r="F295">
         <v>1</v>
       </c>
+      <c r="G295">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I295" s="1" t="s">
         <v>301</v>
       </c>
@@ -10235,6 +11419,10 @@
       <c r="F296">
         <v>1</v>
       </c>
+      <c r="G296">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I296" s="1" t="s">
         <v>302</v>
       </c>
@@ -10258,6 +11446,10 @@
       <c r="F297">
         <v>1</v>
       </c>
+      <c r="G297">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I297" s="1" t="s">
         <v>303</v>
       </c>
@@ -10281,6 +11473,10 @@
       <c r="F298">
         <v>0</v>
       </c>
+      <c r="G298">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I298" s="1" t="s">
         <v>304</v>
       </c>
@@ -10304,6 +11500,10 @@
       <c r="F299">
         <v>0</v>
       </c>
+      <c r="G299">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I299" s="1" t="s">
         <v>305</v>
       </c>
@@ -10327,6 +11527,10 @@
       <c r="F300">
         <v>1</v>
       </c>
+      <c r="G300">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I300" s="1" t="s">
         <v>306</v>
       </c>
@@ -10350,6 +11554,10 @@
       <c r="F301">
         <v>1</v>
       </c>
+      <c r="G301">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I301" s="1" t="s">
         <v>307</v>
       </c>
@@ -10373,6 +11581,10 @@
       <c r="F302">
         <v>1</v>
       </c>
+      <c r="G302">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I302" s="1" t="s">
         <v>308</v>
       </c>
@@ -10396,6 +11608,10 @@
       <c r="F303">
         <v>1</v>
       </c>
+      <c r="G303">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I303" s="1" t="s">
         <v>309</v>
       </c>
@@ -10419,6 +11635,10 @@
       <c r="F304">
         <v>1</v>
       </c>
+      <c r="G304">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I304" s="1" t="s">
         <v>310</v>
       </c>
@@ -10442,6 +11662,10 @@
       <c r="F305">
         <v>1</v>
       </c>
+      <c r="G305">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I305" s="1" t="s">
         <v>311</v>
       </c>
@@ -10465,6 +11689,10 @@
       <c r="F306">
         <v>1</v>
       </c>
+      <c r="G306">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I306" s="1" t="s">
         <v>312</v>
       </c>
@@ -10488,6 +11716,10 @@
       <c r="F307">
         <v>1</v>
       </c>
+      <c r="G307">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I307" s="1" t="s">
         <v>313</v>
       </c>
@@ -10511,6 +11743,10 @@
       <c r="F308">
         <v>1</v>
       </c>
+      <c r="G308">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I308" s="1" t="s">
         <v>314</v>
       </c>
@@ -10534,6 +11770,10 @@
       <c r="F309">
         <v>1</v>
       </c>
+      <c r="G309">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I309" s="1" t="s">
         <v>315</v>
       </c>
@@ -10557,6 +11797,10 @@
       <c r="F310">
         <v>0</v>
       </c>
+      <c r="G310">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I310" s="1" t="s">
         <v>316</v>
       </c>
@@ -10580,6 +11824,10 @@
       <c r="F311">
         <v>1</v>
       </c>
+      <c r="G311">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I311" s="1" t="s">
         <v>317</v>
       </c>
@@ -10603,6 +11851,10 @@
       <c r="F312">
         <v>1</v>
       </c>
+      <c r="G312">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I312" s="1" t="s">
         <v>318</v>
       </c>
@@ -10626,6 +11878,10 @@
       <c r="F313">
         <v>1</v>
       </c>
+      <c r="G313">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I313" s="1" t="s">
         <v>319</v>
       </c>
@@ -10649,6 +11905,10 @@
       <c r="F314">
         <v>0</v>
       </c>
+      <c r="G314">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I314" s="1" t="s">
         <v>320</v>
       </c>
@@ -10672,6 +11932,10 @@
       <c r="F315">
         <v>0</v>
       </c>
+      <c r="G315">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I315" s="1" t="s">
         <v>321</v>
       </c>
@@ -10695,6 +11959,10 @@
       <c r="F316">
         <v>1</v>
       </c>
+      <c r="G316">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I316" s="1" t="s">
         <v>322</v>
       </c>
@@ -10718,6 +11986,10 @@
       <c r="F317">
         <v>0</v>
       </c>
+      <c r="G317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I317" s="1" t="s">
         <v>323</v>
       </c>
@@ -10741,6 +12013,10 @@
       <c r="F318">
         <v>1</v>
       </c>
+      <c r="G318">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I318" s="1" t="s">
         <v>324</v>
       </c>
@@ -10764,6 +12040,10 @@
       <c r="F319">
         <v>1</v>
       </c>
+      <c r="G319">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I319" s="1" t="s">
         <v>325</v>
       </c>
@@ -10787,6 +12067,10 @@
       <c r="F320">
         <v>1</v>
       </c>
+      <c r="G320">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I320" s="1" t="s">
         <v>326</v>
       </c>
@@ -10810,6 +12094,10 @@
       <c r="F321">
         <v>0</v>
       </c>
+      <c r="G321">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I321" s="1" t="s">
         <v>327</v>
       </c>
@@ -10833,6 +12121,10 @@
       <c r="F322">
         <v>1</v>
       </c>
+      <c r="G322">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I322" s="1" t="s">
         <v>328</v>
       </c>
@@ -10856,6 +12148,10 @@
       <c r="F323">
         <v>1</v>
       </c>
+      <c r="G323">
+        <f t="shared" ref="G323:G386" si="5">ABS(E323-F323)</f>
+        <v>0</v>
+      </c>
       <c r="I323" s="1" t="s">
         <v>329</v>
       </c>
@@ -10879,6 +12175,10 @@
       <c r="F324">
         <v>1</v>
       </c>
+      <c r="G324">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I324" s="1" t="s">
         <v>330</v>
       </c>
@@ -10902,6 +12202,10 @@
       <c r="F325">
         <v>1</v>
       </c>
+      <c r="G325">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I325" s="1" t="s">
         <v>331</v>
       </c>
@@ -10925,6 +12229,10 @@
       <c r="F326">
         <v>1</v>
       </c>
+      <c r="G326">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I326" s="1" t="s">
         <v>332</v>
       </c>
@@ -10948,6 +12256,10 @@
       <c r="F327">
         <v>1</v>
       </c>
+      <c r="G327">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I327" s="1" t="s">
         <v>333</v>
       </c>
@@ -10971,6 +12283,10 @@
       <c r="F328">
         <v>0</v>
       </c>
+      <c r="G328">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I328" s="1" t="s">
         <v>334</v>
       </c>
@@ -10994,6 +12310,10 @@
       <c r="F329">
         <v>1</v>
       </c>
+      <c r="G329">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I329" s="1" t="s">
         <v>335</v>
       </c>
@@ -11017,6 +12337,10 @@
       <c r="F330">
         <v>1</v>
       </c>
+      <c r="G330">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I330" s="1" t="s">
         <v>336</v>
       </c>
@@ -11040,6 +12364,10 @@
       <c r="F331">
         <v>1</v>
       </c>
+      <c r="G331">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I331" s="1" t="s">
         <v>337</v>
       </c>
@@ -11063,6 +12391,10 @@
       <c r="F332">
         <v>1</v>
       </c>
+      <c r="G332">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I332" s="1" t="s">
         <v>338</v>
       </c>
@@ -11086,6 +12418,10 @@
       <c r="F333">
         <v>1</v>
       </c>
+      <c r="G333">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I333" s="1" t="s">
         <v>339</v>
       </c>
@@ -11109,6 +12445,10 @@
       <c r="F334">
         <v>1</v>
       </c>
+      <c r="G334">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I334" s="1" t="s">
         <v>340</v>
       </c>
@@ -11132,6 +12472,10 @@
       <c r="F335">
         <v>1</v>
       </c>
+      <c r="G335">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I335" s="1" t="s">
         <v>341</v>
       </c>
@@ -11155,6 +12499,10 @@
       <c r="F336">
         <v>1</v>
       </c>
+      <c r="G336">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I336" s="1" t="s">
         <v>342</v>
       </c>
@@ -11178,6 +12526,10 @@
       <c r="F337">
         <v>1</v>
       </c>
+      <c r="G337">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I337" s="1" t="s">
         <v>343</v>
       </c>
@@ -11201,6 +12553,10 @@
       <c r="F338">
         <v>1</v>
       </c>
+      <c r="G338">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I338" s="1" t="s">
         <v>344</v>
       </c>
@@ -11224,6 +12580,10 @@
       <c r="F339">
         <v>1</v>
       </c>
+      <c r="G339">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I339" s="1" t="s">
         <v>345</v>
       </c>
@@ -11247,6 +12607,10 @@
       <c r="F340">
         <v>1</v>
       </c>
+      <c r="G340">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I340" s="1" t="s">
         <v>346</v>
       </c>
@@ -11270,6 +12634,10 @@
       <c r="F341">
         <v>0</v>
       </c>
+      <c r="G341">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I341" s="1" t="s">
         <v>347</v>
       </c>
@@ -11293,6 +12661,10 @@
       <c r="F342">
         <v>0</v>
       </c>
+      <c r="G342">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I342" s="1" t="s">
         <v>348</v>
       </c>
@@ -11316,6 +12688,10 @@
       <c r="F343">
         <v>1</v>
       </c>
+      <c r="G343">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I343" s="1" t="s">
         <v>349</v>
       </c>
@@ -11339,6 +12715,10 @@
       <c r="F344">
         <v>1</v>
       </c>
+      <c r="G344">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I344" s="1" t="s">
         <v>350</v>
       </c>
@@ -11362,6 +12742,10 @@
       <c r="F345">
         <v>1</v>
       </c>
+      <c r="G345">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I345" s="1" t="s">
         <v>351</v>
       </c>
@@ -11385,6 +12769,10 @@
       <c r="F346">
         <v>1</v>
       </c>
+      <c r="G346">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I346" s="1" t="s">
         <v>352</v>
       </c>
@@ -11408,6 +12796,10 @@
       <c r="F347">
         <v>1</v>
       </c>
+      <c r="G347">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I347" s="1" t="s">
         <v>353</v>
       </c>
@@ -11431,6 +12823,10 @@
       <c r="F348">
         <v>0</v>
       </c>
+      <c r="G348">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I348" s="1" t="s">
         <v>354</v>
       </c>
@@ -11454,6 +12850,10 @@
       <c r="F349">
         <v>1</v>
       </c>
+      <c r="G349">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I349" s="1" t="s">
         <v>355</v>
       </c>
@@ -11477,6 +12877,10 @@
       <c r="F350">
         <v>1</v>
       </c>
+      <c r="G350">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I350" s="1" t="s">
         <v>356</v>
       </c>
@@ -11500,6 +12904,10 @@
       <c r="F351">
         <v>0</v>
       </c>
+      <c r="G351">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I351" s="1" t="s">
         <v>357</v>
       </c>
@@ -11523,6 +12931,10 @@
       <c r="F352">
         <v>1</v>
       </c>
+      <c r="G352">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I352" s="1" t="s">
         <v>358</v>
       </c>
@@ -11546,6 +12958,10 @@
       <c r="F353">
         <v>1</v>
       </c>
+      <c r="G353">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I353" s="1" t="s">
         <v>359</v>
       </c>
@@ -11569,6 +12985,10 @@
       <c r="F354">
         <v>1</v>
       </c>
+      <c r="G354">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I354" s="1" t="s">
         <v>360</v>
       </c>
@@ -11592,6 +13012,10 @@
       <c r="F355">
         <v>0</v>
       </c>
+      <c r="G355">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I355" s="1" t="s">
         <v>361</v>
       </c>
@@ -11615,6 +13039,10 @@
       <c r="F356">
         <v>1</v>
       </c>
+      <c r="G356">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I356" s="1" t="s">
         <v>362</v>
       </c>
@@ -11638,6 +13066,10 @@
       <c r="F357">
         <v>0</v>
       </c>
+      <c r="G357">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I357" s="1" t="s">
         <v>363</v>
       </c>
@@ -11661,6 +13093,10 @@
       <c r="F358">
         <v>1</v>
       </c>
+      <c r="G358">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I358" s="1" t="s">
         <v>364</v>
       </c>
@@ -11684,6 +13120,10 @@
       <c r="F359">
         <v>1</v>
       </c>
+      <c r="G359">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I359" s="1" t="s">
         <v>365</v>
       </c>
@@ -11707,6 +13147,10 @@
       <c r="F360">
         <v>1</v>
       </c>
+      <c r="G360">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I360" s="1" t="s">
         <v>366</v>
       </c>
@@ -11730,6 +13174,10 @@
       <c r="F361">
         <v>1</v>
       </c>
+      <c r="G361">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I361" s="1" t="s">
         <v>367</v>
       </c>
@@ -11753,6 +13201,10 @@
       <c r="F362">
         <v>1</v>
       </c>
+      <c r="G362">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I362" s="1" t="s">
         <v>368</v>
       </c>
@@ -11776,6 +13228,10 @@
       <c r="F363">
         <v>0</v>
       </c>
+      <c r="G363">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I363" s="1" t="s">
         <v>369</v>
       </c>
@@ -11799,6 +13255,10 @@
       <c r="F364">
         <v>1</v>
       </c>
+      <c r="G364">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I364" s="1" t="s">
         <v>370</v>
       </c>
@@ -11822,6 +13282,10 @@
       <c r="F365">
         <v>1</v>
       </c>
+      <c r="G365">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I365" s="1" t="s">
         <v>371</v>
       </c>
@@ -11845,6 +13309,10 @@
       <c r="F366">
         <v>1</v>
       </c>
+      <c r="G366">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I366" s="1" t="s">
         <v>372</v>
       </c>
@@ -11868,6 +13336,10 @@
       <c r="F367">
         <v>1</v>
       </c>
+      <c r="G367">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I367" s="1" t="s">
         <v>373</v>
       </c>
@@ -11891,6 +13363,10 @@
       <c r="F368">
         <v>1</v>
       </c>
+      <c r="G368">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I368" s="1" t="s">
         <v>374</v>
       </c>
@@ -11914,6 +13390,10 @@
       <c r="F369">
         <v>1</v>
       </c>
+      <c r="G369">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I369" s="1" t="s">
         <v>375</v>
       </c>
@@ -11937,6 +13417,10 @@
       <c r="F370">
         <v>1</v>
       </c>
+      <c r="G370">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I370" s="1" t="s">
         <v>376</v>
       </c>
@@ -11960,6 +13444,10 @@
       <c r="F371">
         <v>0</v>
       </c>
+      <c r="G371">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I371" s="1" t="s">
         <v>377</v>
       </c>
@@ -11983,6 +13471,10 @@
       <c r="F372">
         <v>1</v>
       </c>
+      <c r="G372">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I372" s="1" t="s">
         <v>378</v>
       </c>
@@ -12006,6 +13498,10 @@
       <c r="F373">
         <v>0</v>
       </c>
+      <c r="G373">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I373" s="1" t="s">
         <v>379</v>
       </c>
@@ -12029,6 +13525,10 @@
       <c r="F374">
         <v>1</v>
       </c>
+      <c r="G374">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I374" s="1" t="s">
         <v>380</v>
       </c>
@@ -12052,6 +13552,10 @@
       <c r="F375">
         <v>0</v>
       </c>
+      <c r="G375">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I375" s="1" t="s">
         <v>381</v>
       </c>
@@ -12075,6 +13579,10 @@
       <c r="F376">
         <v>0</v>
       </c>
+      <c r="G376">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I376" s="1" t="s">
         <v>382</v>
       </c>
@@ -12098,6 +13606,10 @@
       <c r="F377">
         <v>1</v>
       </c>
+      <c r="G377">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I377" s="1" t="s">
         <v>383</v>
       </c>
@@ -12121,6 +13633,10 @@
       <c r="F378">
         <v>1</v>
       </c>
+      <c r="G378">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I378" s="1" t="s">
         <v>384</v>
       </c>
@@ -12144,6 +13660,10 @@
       <c r="F379">
         <v>1</v>
       </c>
+      <c r="G379">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I379" s="1" t="s">
         <v>385</v>
       </c>
@@ -12167,6 +13687,10 @@
       <c r="F380">
         <v>1</v>
       </c>
+      <c r="G380">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I380" s="1" t="s">
         <v>386</v>
       </c>
@@ -12190,6 +13714,10 @@
       <c r="F381">
         <v>1</v>
       </c>
+      <c r="G381">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I381" s="1" t="s">
         <v>387</v>
       </c>
@@ -12213,6 +13741,10 @@
       <c r="F382">
         <v>0</v>
       </c>
+      <c r="G382">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I382" s="1" t="s">
         <v>388</v>
       </c>
@@ -12236,6 +13768,10 @@
       <c r="F383">
         <v>1</v>
       </c>
+      <c r="G383">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I383" s="1" t="s">
         <v>389</v>
       </c>
@@ -12259,6 +13795,10 @@
       <c r="F384">
         <v>1</v>
       </c>
+      <c r="G384">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I384" s="1" t="s">
         <v>390</v>
       </c>
@@ -12282,6 +13822,10 @@
       <c r="F385">
         <v>1</v>
       </c>
+      <c r="G385">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I385" s="1" t="s">
         <v>391</v>
       </c>
@@ -12305,6 +13849,10 @@
       <c r="F386">
         <v>1</v>
       </c>
+      <c r="G386">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I386" s="1" t="s">
         <v>392</v>
       </c>
@@ -12328,6 +13876,10 @@
       <c r="F387">
         <v>1</v>
       </c>
+      <c r="G387">
+        <f t="shared" ref="G387:G450" si="6">ABS(E387-F387)</f>
+        <v>0</v>
+      </c>
       <c r="I387" s="1" t="s">
         <v>393</v>
       </c>
@@ -12351,6 +13903,10 @@
       <c r="F388">
         <v>1</v>
       </c>
+      <c r="G388">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I388" s="1" t="s">
         <v>394</v>
       </c>
@@ -12374,6 +13930,10 @@
       <c r="F389">
         <v>1</v>
       </c>
+      <c r="G389">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I389" s="1" t="s">
         <v>395</v>
       </c>
@@ -12397,6 +13957,10 @@
       <c r="F390">
         <v>0</v>
       </c>
+      <c r="G390">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I390" s="1" t="s">
         <v>396</v>
       </c>
@@ -12420,6 +13984,10 @@
       <c r="F391">
         <v>1</v>
       </c>
+      <c r="G391">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I391" s="1" t="s">
         <v>397</v>
       </c>
@@ -12443,6 +14011,10 @@
       <c r="F392">
         <v>1</v>
       </c>
+      <c r="G392">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I392" s="1" t="s">
         <v>398</v>
       </c>
@@ -12466,6 +14038,10 @@
       <c r="F393">
         <v>1</v>
       </c>
+      <c r="G393">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I393" s="1" t="s">
         <v>399</v>
       </c>
@@ -12489,6 +14065,10 @@
       <c r="F394">
         <v>1</v>
       </c>
+      <c r="G394">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I394" s="1" t="s">
         <v>400</v>
       </c>
@@ -12512,6 +14092,10 @@
       <c r="F395">
         <v>0</v>
       </c>
+      <c r="G395">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I395" s="1" t="s">
         <v>401</v>
       </c>
@@ -12535,6 +14119,10 @@
       <c r="F396">
         <v>1</v>
       </c>
+      <c r="G396">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I396" s="1" t="s">
         <v>402</v>
       </c>
@@ -12558,6 +14146,10 @@
       <c r="F397">
         <v>0</v>
       </c>
+      <c r="G397">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I397" s="1" t="s">
         <v>403</v>
       </c>
@@ -12581,6 +14173,10 @@
       <c r="F398">
         <v>1</v>
       </c>
+      <c r="G398">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I398" s="1" t="s">
         <v>404</v>
       </c>
@@ -12604,6 +14200,10 @@
       <c r="F399">
         <v>1</v>
       </c>
+      <c r="G399">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I399" s="1" t="s">
         <v>405</v>
       </c>
@@ -12627,6 +14227,10 @@
       <c r="F400">
         <v>1</v>
       </c>
+      <c r="G400">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I400" s="1" t="s">
         <v>406</v>
       </c>
@@ -12650,6 +14254,10 @@
       <c r="F401">
         <v>1</v>
       </c>
+      <c r="G401">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I401" s="1" t="s">
         <v>407</v>
       </c>
@@ -12673,6 +14281,10 @@
       <c r="F402">
         <v>0</v>
       </c>
+      <c r="G402">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I402" s="1" t="s">
         <v>408</v>
       </c>
@@ -12696,6 +14308,10 @@
       <c r="F403">
         <v>1</v>
       </c>
+      <c r="G403">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I403" s="1" t="s">
         <v>409</v>
       </c>
@@ -12719,6 +14335,10 @@
       <c r="F404">
         <v>1</v>
       </c>
+      <c r="G404">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I404" s="1" t="s">
         <v>410</v>
       </c>
@@ -12742,6 +14362,10 @@
       <c r="F405">
         <v>1</v>
       </c>
+      <c r="G405">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I405" s="1" t="s">
         <v>411</v>
       </c>
@@ -12765,6 +14389,10 @@
       <c r="F406">
         <v>1</v>
       </c>
+      <c r="G406">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I406" s="1" t="s">
         <v>412</v>
       </c>
@@ -12788,6 +14416,10 @@
       <c r="F407">
         <v>0</v>
       </c>
+      <c r="G407">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I407" s="1" t="s">
         <v>413</v>
       </c>
@@ -12811,6 +14443,10 @@
       <c r="F408">
         <v>1</v>
       </c>
+      <c r="G408">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I408" s="1" t="s">
         <v>414</v>
       </c>
@@ -12834,6 +14470,10 @@
       <c r="F409">
         <v>1</v>
       </c>
+      <c r="G409">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I409" s="1" t="s">
         <v>415</v>
       </c>
@@ -12857,6 +14497,10 @@
       <c r="F410">
         <v>0</v>
       </c>
+      <c r="G410">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I410" s="1" t="s">
         <v>416</v>
       </c>
@@ -12880,6 +14524,10 @@
       <c r="F411">
         <v>1</v>
       </c>
+      <c r="G411">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I411" s="1" t="s">
         <v>417</v>
       </c>
@@ -12903,6 +14551,10 @@
       <c r="F412">
         <v>1</v>
       </c>
+      <c r="G412">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I412" s="1" t="s">
         <v>418</v>
       </c>
@@ -12926,6 +14578,10 @@
       <c r="F413">
         <v>1</v>
       </c>
+      <c r="G413">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I413" s="1" t="s">
         <v>419</v>
       </c>
@@ -12949,6 +14605,10 @@
       <c r="F414">
         <v>0</v>
       </c>
+      <c r="G414">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I414" s="1" t="s">
         <v>420</v>
       </c>
@@ -12972,6 +14632,10 @@
       <c r="F415">
         <v>1</v>
       </c>
+      <c r="G415">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I415" s="1" t="s">
         <v>421</v>
       </c>
@@ -12995,6 +14659,10 @@
       <c r="F416">
         <v>1</v>
       </c>
+      <c r="G416">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I416" s="1" t="s">
         <v>422</v>
       </c>
@@ -13018,6 +14686,10 @@
       <c r="F417">
         <v>1</v>
       </c>
+      <c r="G417">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I417" s="1" t="s">
         <v>423</v>
       </c>
@@ -13041,6 +14713,10 @@
       <c r="F418">
         <v>1</v>
       </c>
+      <c r="G418">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I418" s="1" t="s">
         <v>424</v>
       </c>
@@ -13064,6 +14740,10 @@
       <c r="F419">
         <v>1</v>
       </c>
+      <c r="G419">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I419" s="1" t="s">
         <v>425</v>
       </c>
@@ -13087,6 +14767,10 @@
       <c r="F420">
         <v>1</v>
       </c>
+      <c r="G420">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I420" s="1" t="s">
         <v>426</v>
       </c>
@@ -13110,6 +14794,10 @@
       <c r="F421">
         <v>1</v>
       </c>
+      <c r="G421">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I421" s="1" t="s">
         <v>427</v>
       </c>
@@ -13133,6 +14821,10 @@
       <c r="F422">
         <v>1</v>
       </c>
+      <c r="G422">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I422" s="1" t="s">
         <v>428</v>
       </c>
@@ -13156,6 +14848,10 @@
       <c r="F423">
         <v>1</v>
       </c>
+      <c r="G423">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I423" s="1" t="s">
         <v>429</v>
       </c>
@@ -13179,6 +14875,10 @@
       <c r="F424">
         <v>1</v>
       </c>
+      <c r="G424">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I424" s="1" t="s">
         <v>430</v>
       </c>
@@ -13202,6 +14902,10 @@
       <c r="F425">
         <v>1</v>
       </c>
+      <c r="G425">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I425" s="1" t="s">
         <v>431</v>
       </c>
@@ -13225,6 +14929,10 @@
       <c r="F426">
         <v>1</v>
       </c>
+      <c r="G426">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I426" s="1" t="s">
         <v>432</v>
       </c>
@@ -13248,6 +14956,10 @@
       <c r="F427">
         <v>0</v>
       </c>
+      <c r="G427">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I427" s="1" t="s">
         <v>433</v>
       </c>
@@ -13271,6 +14983,10 @@
       <c r="F428">
         <v>1</v>
       </c>
+      <c r="G428">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I428" s="1" t="s">
         <v>434</v>
       </c>
@@ -13294,6 +15010,10 @@
       <c r="F429">
         <v>1</v>
       </c>
+      <c r="G429">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I429" s="1" t="s">
         <v>435</v>
       </c>
@@ -13317,6 +15037,10 @@
       <c r="F430">
         <v>1</v>
       </c>
+      <c r="G430">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I430" s="1" t="s">
         <v>436</v>
       </c>
@@ -13340,6 +15064,10 @@
       <c r="F431">
         <v>1</v>
       </c>
+      <c r="G431">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I431" s="1" t="s">
         <v>437</v>
       </c>
@@ -13363,6 +15091,10 @@
       <c r="F432">
         <v>1</v>
       </c>
+      <c r="G432">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I432" s="1" t="s">
         <v>438</v>
       </c>
@@ -13386,6 +15118,10 @@
       <c r="F433">
         <v>1</v>
       </c>
+      <c r="G433">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I433" s="1" t="s">
         <v>439</v>
       </c>
@@ -13409,6 +15145,10 @@
       <c r="F434">
         <v>1</v>
       </c>
+      <c r="G434">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I434" s="1" t="s">
         <v>440</v>
       </c>
@@ -13432,6 +15172,10 @@
       <c r="F435">
         <v>1</v>
       </c>
+      <c r="G435">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I435" s="1" t="s">
         <v>441</v>
       </c>
@@ -13455,6 +15199,10 @@
       <c r="F436">
         <v>1</v>
       </c>
+      <c r="G436">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I436" s="1" t="s">
         <v>442</v>
       </c>
@@ -13478,6 +15226,10 @@
       <c r="F437">
         <v>1</v>
       </c>
+      <c r="G437">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I437" s="1" t="s">
         <v>443</v>
       </c>
@@ -13501,6 +15253,10 @@
       <c r="F438">
         <v>1</v>
       </c>
+      <c r="G438">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I438" s="1" t="s">
         <v>444</v>
       </c>
@@ -13524,6 +15280,10 @@
       <c r="F439">
         <v>1</v>
       </c>
+      <c r="G439">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I439" s="1" t="s">
         <v>445</v>
       </c>
@@ -13547,6 +15307,10 @@
       <c r="F440">
         <v>1</v>
       </c>
+      <c r="G440">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I440" s="1" t="s">
         <v>446</v>
       </c>
@@ -13570,6 +15334,10 @@
       <c r="F441">
         <v>0</v>
       </c>
+      <c r="G441">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I441" s="1" t="s">
         <v>447</v>
       </c>
@@ -13593,6 +15361,10 @@
       <c r="F442">
         <v>1</v>
       </c>
+      <c r="G442">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I442" s="1" t="s">
         <v>448</v>
       </c>
@@ -13616,6 +15388,10 @@
       <c r="F443">
         <v>0</v>
       </c>
+      <c r="G443">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I443" s="1" t="s">
         <v>449</v>
       </c>
@@ -13639,6 +15415,10 @@
       <c r="F444">
         <v>1</v>
       </c>
+      <c r="G444">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I444" s="1" t="s">
         <v>450</v>
       </c>
@@ -13662,6 +15442,10 @@
       <c r="F445">
         <v>1</v>
       </c>
+      <c r="G445">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I445" s="1" t="s">
         <v>451</v>
       </c>
@@ -13685,6 +15469,10 @@
       <c r="F446">
         <v>1</v>
       </c>
+      <c r="G446">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I446" s="1" t="s">
         <v>452</v>
       </c>
@@ -13708,6 +15496,10 @@
       <c r="F447">
         <v>1</v>
       </c>
+      <c r="G447">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I447" s="1" t="s">
         <v>453</v>
       </c>
@@ -13731,6 +15523,10 @@
       <c r="F448">
         <v>1</v>
       </c>
+      <c r="G448">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I448" s="1" t="s">
         <v>454</v>
       </c>
@@ -13754,6 +15550,10 @@
       <c r="F449">
         <v>0</v>
       </c>
+      <c r="G449">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I449" s="1" t="s">
         <v>455</v>
       </c>
@@ -13777,6 +15577,10 @@
       <c r="F450">
         <v>1</v>
       </c>
+      <c r="G450">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I450" s="1" t="s">
         <v>456</v>
       </c>
@@ -13800,6 +15604,10 @@
       <c r="F451">
         <v>0</v>
       </c>
+      <c r="G451">
+        <f t="shared" ref="G451:G501" si="7">ABS(E451-F451)</f>
+        <v>0</v>
+      </c>
       <c r="I451" s="1" t="s">
         <v>457</v>
       </c>
@@ -13823,6 +15631,10 @@
       <c r="F452">
         <v>1</v>
       </c>
+      <c r="G452">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I452" s="1" t="s">
         <v>458</v>
       </c>
@@ -13846,6 +15658,10 @@
       <c r="F453">
         <v>1</v>
       </c>
+      <c r="G453">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I453" s="1" t="s">
         <v>459</v>
       </c>
@@ -13869,6 +15685,10 @@
       <c r="F454">
         <v>1</v>
       </c>
+      <c r="G454">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I454" s="1" t="s">
         <v>460</v>
       </c>
@@ -13892,6 +15712,10 @@
       <c r="F455">
         <v>0</v>
       </c>
+      <c r="G455">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I455" s="1" t="s">
         <v>461</v>
       </c>
@@ -13915,6 +15739,10 @@
       <c r="F456">
         <v>1</v>
       </c>
+      <c r="G456">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I456" s="1" t="s">
         <v>462</v>
       </c>
@@ -13938,6 +15766,10 @@
       <c r="F457">
         <v>1</v>
       </c>
+      <c r="G457">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I457" s="1" t="s">
         <v>463</v>
       </c>
@@ -13961,6 +15793,10 @@
       <c r="F458">
         <v>0</v>
       </c>
+      <c r="G458">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I458" s="1" t="s">
         <v>464</v>
       </c>
@@ -13984,6 +15820,10 @@
       <c r="F459">
         <v>1</v>
       </c>
+      <c r="G459">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I459" s="1" t="s">
         <v>465</v>
       </c>
@@ -14007,6 +15847,10 @@
       <c r="F460">
         <v>1</v>
       </c>
+      <c r="G460">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I460" s="1" t="s">
         <v>466</v>
       </c>
@@ -14030,6 +15874,10 @@
       <c r="F461">
         <v>1</v>
       </c>
+      <c r="G461">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I461" s="1" t="s">
         <v>467</v>
       </c>
@@ -14053,6 +15901,10 @@
       <c r="F462">
         <v>1</v>
       </c>
+      <c r="G462">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I462" s="1" t="s">
         <v>468</v>
       </c>
@@ -14076,6 +15928,10 @@
       <c r="F463">
         <v>1</v>
       </c>
+      <c r="G463">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I463" s="1" t="s">
         <v>469</v>
       </c>
@@ -14099,6 +15955,10 @@
       <c r="F464">
         <v>1</v>
       </c>
+      <c r="G464">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I464" s="1" t="s">
         <v>470</v>
       </c>
@@ -14122,6 +15982,10 @@
       <c r="F465">
         <v>1</v>
       </c>
+      <c r="G465">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I465" s="1" t="s">
         <v>471</v>
       </c>
@@ -14145,6 +16009,10 @@
       <c r="F466">
         <v>0</v>
       </c>
+      <c r="G466">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I466" s="1" t="s">
         <v>472</v>
       </c>
@@ -14168,6 +16036,10 @@
       <c r="F467">
         <v>1</v>
       </c>
+      <c r="G467">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I467" s="1" t="s">
         <v>473</v>
       </c>
@@ -14191,6 +16063,10 @@
       <c r="F468">
         <v>0</v>
       </c>
+      <c r="G468">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I468" s="1" t="s">
         <v>474</v>
       </c>
@@ -14214,6 +16090,10 @@
       <c r="F469">
         <v>1</v>
       </c>
+      <c r="G469">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I469" s="1" t="s">
         <v>475</v>
       </c>
@@ -14237,6 +16117,10 @@
       <c r="F470">
         <v>1</v>
       </c>
+      <c r="G470">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I470" s="1" t="s">
         <v>476</v>
       </c>
@@ -14260,6 +16144,10 @@
       <c r="F471">
         <v>0</v>
       </c>
+      <c r="G471">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I471" s="1" t="s">
         <v>477</v>
       </c>
@@ -14283,6 +16171,10 @@
       <c r="F472">
         <v>1</v>
       </c>
+      <c r="G472">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I472" s="1" t="s">
         <v>478</v>
       </c>
@@ -14306,6 +16198,10 @@
       <c r="F473">
         <v>0</v>
       </c>
+      <c r="G473">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I473" s="1" t="s">
         <v>479</v>
       </c>
@@ -14329,6 +16225,10 @@
       <c r="F474">
         <v>0</v>
       </c>
+      <c r="G474">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I474" s="1" t="s">
         <v>480</v>
       </c>
@@ -14352,6 +16252,10 @@
       <c r="F475">
         <v>1</v>
       </c>
+      <c r="G475">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I475" s="1" t="s">
         <v>481</v>
       </c>
@@ -14375,6 +16279,10 @@
       <c r="F476">
         <v>1</v>
       </c>
+      <c r="G476">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I476" s="1" t="s">
         <v>482</v>
       </c>
@@ -14398,6 +16306,10 @@
       <c r="F477">
         <v>1</v>
       </c>
+      <c r="G477">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I477" s="1" t="s">
         <v>483</v>
       </c>
@@ -14421,6 +16333,10 @@
       <c r="F478">
         <v>1</v>
       </c>
+      <c r="G478">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I478" s="1" t="s">
         <v>484</v>
       </c>
@@ -14444,6 +16360,10 @@
       <c r="F479">
         <v>1</v>
       </c>
+      <c r="G479">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I479" s="1" t="s">
         <v>485</v>
       </c>
@@ -14467,6 +16387,10 @@
       <c r="F480">
         <v>1</v>
       </c>
+      <c r="G480">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I480" s="1" t="s">
         <v>486</v>
       </c>
@@ -14490,6 +16414,10 @@
       <c r="F481">
         <v>1</v>
       </c>
+      <c r="G481">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I481" s="1" t="s">
         <v>487</v>
       </c>
@@ -14513,6 +16441,10 @@
       <c r="F482">
         <v>1</v>
       </c>
+      <c r="G482">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I482" s="1" t="s">
         <v>488</v>
       </c>
@@ -14536,6 +16468,10 @@
       <c r="F483">
         <v>1</v>
       </c>
+      <c r="G483">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I483" s="1" t="s">
         <v>489</v>
       </c>
@@ -14559,6 +16495,10 @@
       <c r="F484">
         <v>1</v>
       </c>
+      <c r="G484">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I484" s="1" t="s">
         <v>490</v>
       </c>
@@ -14582,6 +16522,10 @@
       <c r="F485">
         <v>1</v>
       </c>
+      <c r="G485">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I485" s="1" t="s">
         <v>491</v>
       </c>
@@ -14605,6 +16549,10 @@
       <c r="F486">
         <v>1</v>
       </c>
+      <c r="G486">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I486" s="1" t="s">
         <v>492</v>
       </c>
@@ -14628,6 +16576,10 @@
       <c r="F487">
         <v>1</v>
       </c>
+      <c r="G487">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I487" s="1" t="s">
         <v>493</v>
       </c>
@@ -14651,6 +16603,10 @@
       <c r="F488">
         <v>0</v>
       </c>
+      <c r="G488">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I488" s="1" t="s">
         <v>494</v>
       </c>
@@ -14674,6 +16630,10 @@
       <c r="F489">
         <v>0</v>
       </c>
+      <c r="G489">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I489" s="1" t="s">
         <v>495</v>
       </c>
@@ -14697,6 +16657,10 @@
       <c r="F490">
         <v>1</v>
       </c>
+      <c r="G490">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I490" s="1" t="s">
         <v>496</v>
       </c>
@@ -14720,6 +16684,10 @@
       <c r="F491">
         <v>1</v>
       </c>
+      <c r="G491">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I491" s="1" t="s">
         <v>497</v>
       </c>
@@ -14743,6 +16711,10 @@
       <c r="F492">
         <v>1</v>
       </c>
+      <c r="G492">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I492" s="1" t="s">
         <v>498</v>
       </c>
@@ -14766,6 +16738,10 @@
       <c r="F493">
         <v>1</v>
       </c>
+      <c r="G493">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I493" s="1" t="s">
         <v>499</v>
       </c>
@@ -14789,6 +16765,10 @@
       <c r="F494">
         <v>0</v>
       </c>
+      <c r="G494">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I494" s="1" t="s">
         <v>500</v>
       </c>
@@ -14812,6 +16792,10 @@
       <c r="F495">
         <v>1</v>
       </c>
+      <c r="G495">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I495" s="1" t="s">
         <v>501</v>
       </c>
@@ -14835,6 +16819,10 @@
       <c r="F496">
         <v>1</v>
       </c>
+      <c r="G496">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I496" s="1" t="s">
         <v>502</v>
       </c>
@@ -14858,6 +16846,10 @@
       <c r="F497">
         <v>1</v>
       </c>
+      <c r="G497">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I497" s="1" t="s">
         <v>503</v>
       </c>
@@ -14881,6 +16873,10 @@
       <c r="F498">
         <v>1</v>
       </c>
+      <c r="G498">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I498" s="1" t="s">
         <v>504</v>
       </c>
@@ -14904,6 +16900,10 @@
       <c r="F499">
         <v>1</v>
       </c>
+      <c r="G499">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I499" s="1" t="s">
         <v>505</v>
       </c>
@@ -14927,6 +16927,10 @@
       <c r="F500">
         <v>1</v>
       </c>
+      <c r="G500">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I500" s="1" t="s">
         <v>506</v>
       </c>
@@ -14948,6 +16952,10 @@
         <v>0</v>
       </c>
       <c r="F501">
+        <v>0</v>
+      </c>
+      <c r="G501">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I501" s="1" t="s">
@@ -14957,6 +16965,10 @@
     <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>6</v>
+      </c>
+      <c r="G502">
+        <f xml:space="preserve"> SUM(G2:G501)</f>
+        <v>2</v>
       </c>
       <c r="I502" s="1" t="s">
         <v>508</v>
